--- a/BackTest/2019-11-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-21 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>22302.9645</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>22302.9645</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="J3" t="n">
         <v>306</v>
       </c>
-      <c r="K3" t="n">
-        <v>306</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +521,21 @@
         <v>22302.9645</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>306</v>
       </c>
-      <c r="K4" t="n">
-        <v>306</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +560,21 @@
         <v>22302.9645</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>306</v>
       </c>
-      <c r="K5" t="n">
-        <v>306</v>
-      </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,22 +599,15 @@
         <v>22302.9645</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>306</v>
-      </c>
-      <c r="K6" t="n">
-        <v>306</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,110 +632,99 @@
         <v>24646.8125</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="J7" t="n">
         <v>306</v>
       </c>
-      <c r="K7" t="n">
-        <v>306</v>
-      </c>
-      <c r="L7" t="inlineStr">
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>307</v>
+      </c>
+      <c r="C8" t="n">
+        <v>307</v>
+      </c>
+      <c r="D8" t="n">
+        <v>307</v>
+      </c>
+      <c r="E8" t="n">
+        <v>307</v>
+      </c>
+      <c r="F8" t="n">
+        <v>137.508</v>
+      </c>
+      <c r="G8" t="n">
+        <v>24646.8125</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>306</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>305</v>
+      </c>
+      <c r="C9" t="n">
+        <v>305</v>
+      </c>
+      <c r="D9" t="n">
+        <v>305</v>
+      </c>
+      <c r="E9" t="n">
+        <v>305</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.005</v>
+      </c>
+      <c r="G9" t="n">
+        <v>24636.8075</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
         <v>307</v>
       </c>
-      <c r="C8" t="n">
-        <v>307</v>
-      </c>
-      <c r="D8" t="n">
-        <v>307</v>
-      </c>
-      <c r="E8" t="n">
-        <v>307</v>
-      </c>
-      <c r="F8" t="n">
-        <v>137.508</v>
-      </c>
-      <c r="G8" t="n">
-        <v>24646.8125</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>307</v>
-      </c>
-      <c r="K8" t="n">
-        <v>306</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="J9" t="n">
+        <v>306</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>305</v>
-      </c>
-      <c r="C9" t="n">
-        <v>305</v>
-      </c>
-      <c r="D9" t="n">
-        <v>305</v>
-      </c>
-      <c r="E9" t="n">
-        <v>305</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.005</v>
-      </c>
-      <c r="G9" t="n">
-        <v>24636.8075</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>307</v>
-      </c>
-      <c r="K9" t="n">
-        <v>307</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -788,110 +749,101 @@
         <v>28443.1965</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="J10" t="n">
         <v>305</v>
       </c>
-      <c r="K10" t="n">
-        <v>307</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>305</v>
+      </c>
+      <c r="C11" t="n">
+        <v>305</v>
+      </c>
+      <c r="D11" t="n">
+        <v>305</v>
+      </c>
+      <c r="E11" t="n">
+        <v>305</v>
+      </c>
+      <c r="F11" t="n">
+        <v>500</v>
+      </c>
+      <c r="G11" t="n">
+        <v>27943.1965</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>306</v>
+      </c>
+      <c r="J11" t="n">
+        <v>305</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>306</v>
+      </c>
+      <c r="C12" t="n">
+        <v>306</v>
+      </c>
+      <c r="D12" t="n">
+        <v>306</v>
+      </c>
+      <c r="E12" t="n">
+        <v>306</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.91</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27952.1065</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
         <v>305</v>
       </c>
-      <c r="C11" t="n">
+      <c r="J12" t="n">
         <v>305</v>
       </c>
-      <c r="D11" t="n">
-        <v>305</v>
-      </c>
-      <c r="E11" t="n">
-        <v>305</v>
-      </c>
-      <c r="F11" t="n">
-        <v>500</v>
-      </c>
-      <c r="G11" t="n">
-        <v>27943.1965</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>306</v>
-      </c>
-      <c r="K11" t="n">
-        <v>307</v>
-      </c>
-      <c r="L11" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>306</v>
-      </c>
-      <c r="C12" t="n">
-        <v>306</v>
-      </c>
-      <c r="D12" t="n">
-        <v>306</v>
-      </c>
-      <c r="E12" t="n">
-        <v>306</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8.91</v>
-      </c>
-      <c r="G12" t="n">
-        <v>27952.1065</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>305</v>
-      </c>
-      <c r="K12" t="n">
-        <v>305</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -916,110 +868,101 @@
         <v>27952.1065</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="J13" t="n">
         <v>306</v>
       </c>
-      <c r="K13" t="n">
-        <v>305</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>306</v>
+      </c>
+      <c r="C14" t="n">
+        <v>306</v>
+      </c>
+      <c r="D14" t="n">
+        <v>306</v>
+      </c>
+      <c r="E14" t="n">
+        <v>306</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="G14" t="n">
+        <v>27952.1065</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>306</v>
+      </c>
+      <c r="J14" t="n">
+        <v>306</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>306</v>
-      </c>
-      <c r="C14" t="n">
-        <v>306</v>
-      </c>
-      <c r="D14" t="n">
-        <v>306</v>
-      </c>
-      <c r="E14" t="n">
-        <v>306</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>306</v>
+      </c>
+      <c r="C15" t="n">
+        <v>306</v>
+      </c>
+      <c r="D15" t="n">
+        <v>306</v>
+      </c>
+      <c r="E15" t="n">
+        <v>306</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="G15" t="n">
         <v>27952.1065</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>306</v>
-      </c>
-      <c r="K14" t="n">
-        <v>305</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" t="n">
+        <v>306</v>
+      </c>
+      <c r="J15" t="n">
+        <v>306</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>306</v>
-      </c>
-      <c r="C15" t="n">
-        <v>306</v>
-      </c>
-      <c r="D15" t="n">
-        <v>306</v>
-      </c>
-      <c r="E15" t="n">
-        <v>306</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="G15" t="n">
-        <v>27952.1065</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>306</v>
-      </c>
-      <c r="K15" t="n">
-        <v>306</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1044,410 +987,372 @@
         <v>27952.1065</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>306</v>
-      </c>
-      <c r="K16" t="n">
-        <v>306</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>306</v>
+      </c>
+      <c r="C17" t="n">
+        <v>306</v>
+      </c>
+      <c r="D17" t="n">
+        <v>306</v>
+      </c>
+      <c r="E17" t="n">
+        <v>306</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4193.875</v>
+      </c>
+      <c r="G17" t="n">
+        <v>27952.1065</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>306</v>
+      </c>
+      <c r="J17" t="n">
+        <v>306</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>306</v>
+      </c>
+      <c r="C18" t="n">
+        <v>306</v>
+      </c>
+      <c r="D18" t="n">
+        <v>306</v>
+      </c>
+      <c r="E18" t="n">
+        <v>306</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2420.0966</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27952.1065</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>306</v>
+      </c>
+      <c r="J18" t="n">
+        <v>306</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>306</v>
-      </c>
-      <c r="C17" t="n">
-        <v>306</v>
-      </c>
-      <c r="D17" t="n">
-        <v>306</v>
-      </c>
-      <c r="E17" t="n">
-        <v>306</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4193.875</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>306</v>
+      </c>
+      <c r="C19" t="n">
+        <v>306</v>
+      </c>
+      <c r="D19" t="n">
+        <v>306</v>
+      </c>
+      <c r="E19" t="n">
+        <v>306</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8042.947</v>
+      </c>
+      <c r="G19" t="n">
         <v>27952.1065</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>306</v>
-      </c>
-      <c r="K17" t="n">
-        <v>306</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>306</v>
+      </c>
+      <c r="J19" t="n">
+        <v>306</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>306</v>
-      </c>
-      <c r="C18" t="n">
-        <v>306</v>
-      </c>
-      <c r="D18" t="n">
-        <v>306</v>
-      </c>
-      <c r="E18" t="n">
-        <v>306</v>
-      </c>
-      <c r="F18" t="n">
-        <v>2420.0966</v>
-      </c>
-      <c r="G18" t="n">
-        <v>27952.1065</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>306</v>
-      </c>
-      <c r="K18" t="n">
-        <v>306</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>306</v>
-      </c>
-      <c r="C19" t="n">
-        <v>306</v>
-      </c>
-      <c r="D19" t="n">
-        <v>306</v>
-      </c>
-      <c r="E19" t="n">
-        <v>306</v>
-      </c>
-      <c r="F19" t="n">
-        <v>8042.947</v>
-      </c>
-      <c r="G19" t="n">
-        <v>27952.1065</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>306</v>
-      </c>
-      <c r="K19" t="n">
-        <v>306</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>307</v>
+      </c>
+      <c r="C20" t="n">
+        <v>307</v>
+      </c>
+      <c r="D20" t="n">
+        <v>307</v>
+      </c>
+      <c r="E20" t="n">
+        <v>307</v>
+      </c>
+      <c r="F20" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" t="n">
+        <v>27962.1065</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>306</v>
+      </c>
+      <c r="J20" t="n">
+        <v>306</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>307</v>
+      </c>
+      <c r="C21" t="n">
+        <v>307</v>
+      </c>
+      <c r="D21" t="n">
+        <v>307</v>
+      </c>
+      <c r="E21" t="n">
+        <v>307</v>
+      </c>
+      <c r="F21" t="n">
+        <v>104.4124</v>
+      </c>
+      <c r="G21" t="n">
+        <v>27962.1065</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>307</v>
+      </c>
+      <c r="J21" t="n">
+        <v>306</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
         <v>307</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C22" t="n">
         <v>307</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D22" t="n">
         <v>307</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E22" t="n">
         <v>307</v>
       </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="F22" t="n">
+        <v>4921.7482</v>
+      </c>
+      <c r="G22" t="n">
         <v>27962.1065</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>306</v>
-      </c>
-      <c r="K20" t="n">
-        <v>306</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>307</v>
+      </c>
+      <c r="J22" t="n">
+        <v>306</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
         <v>307</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C23" t="n">
         <v>307</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D23" t="n">
         <v>307</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E23" t="n">
         <v>307</v>
       </c>
-      <c r="F21" t="n">
-        <v>104.4124</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="F23" t="n">
+        <v>412.6133</v>
+      </c>
+      <c r="G23" t="n">
         <v>27962.1065</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
         <v>307</v>
       </c>
-      <c r="K21" t="n">
+      <c r="J23" t="n">
         <v>307</v>
       </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>308</v>
+      </c>
+      <c r="C24" t="n">
+        <v>308</v>
+      </c>
+      <c r="D24" t="n">
+        <v>308</v>
+      </c>
+      <c r="E24" t="n">
+        <v>308</v>
+      </c>
+      <c r="F24" t="n">
+        <v>551.2098</v>
+      </c>
+      <c r="G24" t="n">
+        <v>28513.3163</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
         <v>307</v>
       </c>
-      <c r="C22" t="n">
+      <c r="J24" t="n">
         <v>307</v>
       </c>
-      <c r="D22" t="n">
-        <v>307</v>
-      </c>
-      <c r="E22" t="n">
-        <v>307</v>
-      </c>
-      <c r="F22" t="n">
-        <v>4921.7482</v>
-      </c>
-      <c r="G22" t="n">
-        <v>27962.1065</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>307</v>
-      </c>
-      <c r="K22" t="n">
-        <v>307</v>
-      </c>
-      <c r="L22" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>308</v>
+      </c>
+      <c r="C25" t="n">
+        <v>308</v>
+      </c>
+      <c r="D25" t="n">
+        <v>308</v>
+      </c>
+      <c r="E25" t="n">
+        <v>308</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2727.9908</v>
+      </c>
+      <c r="G25" t="n">
+        <v>28513.3163</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>308</v>
+      </c>
+      <c r="J25" t="n">
         <v>307</v>
       </c>
-      <c r="C23" t="n">
-        <v>307</v>
-      </c>
-      <c r="D23" t="n">
-        <v>307</v>
-      </c>
-      <c r="E23" t="n">
-        <v>307</v>
-      </c>
-      <c r="F23" t="n">
-        <v>412.6133</v>
-      </c>
-      <c r="G23" t="n">
-        <v>27962.1065</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>307</v>
-      </c>
-      <c r="K23" t="n">
-        <v>307</v>
-      </c>
-      <c r="L23" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>308</v>
-      </c>
-      <c r="C24" t="n">
-        <v>308</v>
-      </c>
-      <c r="D24" t="n">
-        <v>308</v>
-      </c>
-      <c r="E24" t="n">
-        <v>308</v>
-      </c>
-      <c r="F24" t="n">
-        <v>551.2098</v>
-      </c>
-      <c r="G24" t="n">
-        <v>28513.3163</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>307</v>
-      </c>
-      <c r="K24" t="n">
-        <v>307</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>308</v>
-      </c>
-      <c r="C25" t="n">
-        <v>308</v>
-      </c>
-      <c r="D25" t="n">
-        <v>308</v>
-      </c>
-      <c r="E25" t="n">
-        <v>308</v>
-      </c>
-      <c r="F25" t="n">
-        <v>2727.9908</v>
-      </c>
-      <c r="G25" t="n">
-        <v>28513.3163</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>308</v>
-      </c>
-      <c r="K25" t="n">
-        <v>307</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1472,26 +1377,23 @@
         <v>30027.0014</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="J26" t="n">
-        <v>308</v>
-      </c>
-      <c r="K26" t="n">
         <v>307</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1516,26 +1418,23 @@
         <v>30558.4214</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="J27" t="n">
-        <v>309</v>
-      </c>
-      <c r="K27" t="n">
         <v>307</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1560,24 +1459,23 @@
         <v>30588.4214</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
+        <v>310</v>
+      </c>
+      <c r="J28" t="n">
         <v>307</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1604,22 +1502,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>307</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1646,22 +1541,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
         <v>307</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1688,22 +1580,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
         <v>307</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1730,22 +1619,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
         <v>307</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1770,24 +1656,21 @@
         <v>38196.548</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
         <v>307</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1812,24 +1695,21 @@
         <v>38196.548</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
         <v>307</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1854,24 +1734,21 @@
         <v>38035.1606</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
+        <v>3</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
         <v>307</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1896,24 +1773,21 @@
         <v>39738.2394</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
         <v>307</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1938,24 +1812,21 @@
         <v>39726.935</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
         <v>307</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1.001514657980456</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1982,22 +1853,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>307</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2024,22 +1886,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>307</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2066,22 +1919,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>307</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2108,22 +1952,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>307</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2150,22 +1985,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>307</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2192,22 +2018,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>307</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2234,22 +2051,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>307</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2276,22 +2084,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>307</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1.024315960912052</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2316,18 +2115,15 @@
         <v>44910.1616</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2352,18 +2148,15 @@
         <v>44976.4967</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2388,18 +2181,15 @@
         <v>44976.4967</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2424,18 +2214,15 @@
         <v>58205.8327</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2460,18 +2247,15 @@
         <v>58205.8327</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2496,18 +2280,15 @@
         <v>58205.8327</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2532,18 +2313,15 @@
         <v>58802.7969</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2568,18 +2346,15 @@
         <v>55412.3197</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2604,18 +2379,15 @@
         <v>51766.7595</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2642,16 +2414,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2678,16 +2447,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2714,16 +2480,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2750,16 +2513,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2786,16 +2546,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2820,18 +2577,15 @@
         <v>49231.1482</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2858,16 +2612,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2894,16 +2645,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2930,16 +2678,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2966,16 +2711,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3002,16 +2744,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3038,16 +2777,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3074,16 +2810,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3110,16 +2843,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3144,18 +2874,15 @@
         <v>54545.1405</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3182,16 +2909,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3218,16 +2942,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3254,16 +2975,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3290,16 +3008,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3326,16 +3041,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3360,18 +3072,15 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3398,16 +3107,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3434,16 +3140,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3470,16 +3173,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3506,16 +3206,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3542,16 +3239,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3578,16 +3272,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3614,16 +3305,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3650,16 +3338,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3686,16 +3371,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3722,16 +3404,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3758,16 +3437,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3794,16 +3470,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3830,16 +3503,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3866,16 +3536,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3902,16 +3569,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3938,16 +3602,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3972,18 +3633,15 @@
         <v>59448.26222327044</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4010,16 +3668,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4046,16 +3701,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4082,16 +3734,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4116,18 +3765,15 @@
         <v>58230.55702327044</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4154,16 +3800,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4190,16 +3833,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4224,18 +3864,15 @@
         <v>54346.45022327044</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4262,16 +3899,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4298,16 +3932,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4334,16 +3965,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4370,16 +3998,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4404,18 +4029,15 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4442,16 +4064,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4478,16 +4097,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4514,16 +4130,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4550,16 +4163,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4586,16 +4196,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4622,16 +4229,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4658,16 +4262,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4694,16 +4295,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4730,18 +4328,15 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-21 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>306</v>
@@ -521,9 +521,11 @@
         <v>22302.9645</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>306</v>
+      </c>
       <c r="J4" t="n">
         <v>306</v>
       </c>
@@ -560,9 +562,11 @@
         <v>22302.9645</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>306</v>
+      </c>
       <c r="J5" t="n">
         <v>306</v>
       </c>
@@ -599,10 +603,14 @@
         <v>22302.9645</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>306</v>
+      </c>
+      <c r="J6" t="n">
+        <v>306</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -632,7 +640,7 @@
         <v>24646.8125</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>306</v>
@@ -640,7 +648,11 @@
       <c r="J7" t="n">
         <v>306</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,9 +681,11 @@
         <v>24646.8125</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>307</v>
+      </c>
       <c r="J8" t="n">
         <v>306</v>
       </c>
@@ -708,19 +722,15 @@
         <v>24636.8075</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>307</v>
       </c>
       <c r="J9" t="n">
-        <v>306</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,15 +759,19 @@
         <v>28443.1965</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>305</v>
       </c>
       <c r="J10" t="n">
-        <v>305</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>307</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,13 +800,13 @@
         <v>27943.1965</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>306</v>
       </c>
       <c r="J11" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -827,7 +841,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>305</v>
@@ -835,11 +849,7 @@
       <c r="J12" t="n">
         <v>305</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -868,15 +878,19 @@
         <v>27952.1065</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>306</v>
       </c>
       <c r="J13" t="n">
-        <v>306</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>305</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -905,13 +919,13 @@
         <v>27952.1065</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>306</v>
       </c>
       <c r="J14" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -946,7 +960,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>306</v>
@@ -954,11 +968,7 @@
       <c r="J15" t="n">
         <v>306</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -987,11 +997,19 @@
         <v>27952.1065</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>306</v>
+      </c>
+      <c r="J16" t="n">
+        <v>306</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1020,7 +1038,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>306</v>
@@ -1028,7 +1046,11 @@
       <c r="J17" t="n">
         <v>306</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1057,7 +1079,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>306</v>
@@ -1065,11 +1087,7 @@
       <c r="J18" t="n">
         <v>306</v>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1098,7 +1116,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>306</v>
@@ -1139,7 +1157,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>306</v>
@@ -1147,7 +1165,11 @@
       <c r="J20" t="n">
         <v>306</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1176,19 +1198,15 @@
         <v>27962.1065</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>307</v>
       </c>
       <c r="J21" t="n">
-        <v>306</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1217,13 +1235,13 @@
         <v>27962.1065</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>307</v>
       </c>
       <c r="J22" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1258,7 +1276,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>307</v>
@@ -1266,7 +1284,11 @@
       <c r="J23" t="n">
         <v>307</v>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1295,7 +1317,7 @@
         <v>28513.3163</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>307</v>
@@ -1303,11 +1325,7 @@
       <c r="J24" t="n">
         <v>307</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1336,7 +1354,7 @@
         <v>28513.3163</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>308</v>
@@ -1377,7 +1395,7 @@
         <v>30027.0014</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>308</v>
@@ -1387,7 +1405,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1418,7 +1436,7 @@
         <v>30558.4214</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>309</v>
@@ -1428,7 +1446,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L27" t="n">
@@ -1459,7 +1477,7 @@
         <v>30588.4214</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>310</v>
@@ -1500,9 +1518,11 @@
         <v>30889.55909999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>311</v>
+      </c>
       <c r="J29" t="n">
         <v>307</v>
       </c>
@@ -1656,7 +1676,7 @@
         <v>38196.548</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
@@ -1695,7 +1715,7 @@
         <v>38196.548</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
@@ -1734,7 +1754,7 @@
         <v>38035.1606</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
@@ -1773,7 +1793,7 @@
         <v>39738.2394</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
@@ -1812,7 +1832,7 @@
         <v>39726.935</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
@@ -1820,11 +1840,11 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.001514657980456</v>
+        <v>1</v>
       </c>
       <c r="M37" t="inlineStr"/>
     </row>
@@ -1854,8 +1874,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>307</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1887,8 +1913,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>307</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1920,8 +1952,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>307</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1953,8 +1991,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>307</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1986,8 +2030,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>307</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2019,8 +2069,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>307</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2052,8 +2108,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>307</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2085,8 +2147,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>307</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2115,11 +2183,17 @@
         <v>44910.1616</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>307</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2148,11 +2222,17 @@
         <v>44976.4967</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>307</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2181,11 +2261,17 @@
         <v>44976.4967</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>307</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2214,11 +2300,17 @@
         <v>58205.8327</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>307</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2247,11 +2339,17 @@
         <v>58205.8327</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>307</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2280,11 +2378,17 @@
         <v>58205.8327</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>307</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2313,11 +2417,17 @@
         <v>58802.7969</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>307</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2346,11 +2456,17 @@
         <v>55412.3197</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>307</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2379,11 +2495,17 @@
         <v>51766.7595</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>307</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2415,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>307</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2448,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>307</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2481,8 +2615,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>307</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2514,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>307</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2547,8 +2693,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>307</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2577,11 +2729,17 @@
         <v>49231.1482</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>307</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2613,8 +2771,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>307</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2646,8 +2810,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>307</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2679,8 +2849,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>307</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2712,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>307</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2745,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>307</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2778,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>307</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2811,8 +3005,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>307</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2841,13 +3041,19 @@
         <v>55387.8105</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>307</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>1.034087947882736</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -2874,7 +3080,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2907,7 +3113,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2940,7 +3146,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2973,7 +3179,7 @@
         <v>51040.5803</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3006,7 +3212,7 @@
         <v>51040.5803</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3039,7 +3245,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3072,7 +3278,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3105,7 +3311,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3138,7 +3344,7 @@
         <v>76586.68862327044</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3435,7 +3641,7 @@
         <v>64692.19312327044</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3468,7 +3674,7 @@
         <v>65022.72602327044</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3501,7 +3707,7 @@
         <v>62629.80612327043</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3534,7 +3740,7 @@
         <v>62418.82182327044</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3567,7 +3773,7 @@
         <v>62418.82182327044</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3600,7 +3806,7 @@
         <v>62289.35862327044</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3633,7 +3839,7 @@
         <v>59448.26222327044</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3666,7 +3872,7 @@
         <v>59448.26222327044</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3699,7 +3905,7 @@
         <v>60088.30972327044</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3732,7 +3938,7 @@
         <v>55265.55702327044</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3765,7 +3971,7 @@
         <v>58230.55702327044</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3798,7 +4004,7 @@
         <v>58227.97162327044</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3831,7 +4037,7 @@
         <v>58237.49872327044</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3864,7 +4070,7 @@
         <v>54346.45022327044</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3897,7 +4103,7 @@
         <v>54346.45022327044</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3930,7 +4136,7 @@
         <v>54445.65532327044</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3963,7 +4169,7 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3996,7 +4202,7 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4029,7 +4235,7 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4062,7 +4268,7 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4095,7 +4301,7 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4128,7 +4334,7 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4337,6 +4543,6 @@
       <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-21 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>22302.9645</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>306</v>
-      </c>
-      <c r="J3" t="n">
-        <v>306</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>22302.9645</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>306</v>
-      </c>
-      <c r="J4" t="n">
-        <v>306</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>22302.9645</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>306</v>
-      </c>
-      <c r="J5" t="n">
-        <v>306</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>22302.9645</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>306</v>
-      </c>
-      <c r="J6" t="n">
-        <v>306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>24646.8125</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>306</v>
-      </c>
-      <c r="J7" t="n">
-        <v>306</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>24646.8125</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>307</v>
-      </c>
-      <c r="J8" t="n">
-        <v>306</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -759,11 +719,9 @@
         <v>28443.1965</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>307</v>
       </c>
@@ -800,11 +758,9 @@
         <v>27943.1965</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>306</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>307</v>
       </c>
@@ -878,11 +834,9 @@
         <v>27952.1065</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>306</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>305</v>
       </c>
@@ -1157,11 +1111,9 @@
         <v>27962.1065</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>306</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>306</v>
       </c>
@@ -1198,14 +1150,10 @@
         <v>27962.1065</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>307</v>
-      </c>
-      <c r="J21" t="n">
-        <v>307</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
@@ -1235,19 +1183,11 @@
         <v>27962.1065</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>307</v>
-      </c>
-      <c r="J22" t="n">
-        <v>307</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1216,11 @@
         <v>27962.1065</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>307</v>
-      </c>
-      <c r="J23" t="n">
-        <v>307</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1477,11 +1409,9 @@
         <v>30588.4214</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>307</v>
       </c>
@@ -1518,11 +1448,9 @@
         <v>30889.55909999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>311</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>307</v>
       </c>
@@ -3041,7 +2969,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
@@ -3049,11 +2977,11 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.034087947882736</v>
+        <v>1</v>
       </c>
       <c r="M68" t="inlineStr"/>
     </row>
@@ -3080,11 +3008,17 @@
         <v>54545.1405</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>307</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3113,11 +3047,17 @@
         <v>54545.1405</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>307</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3146,11 +3086,17 @@
         <v>54545.1405</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>307</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3179,11 +3125,17 @@
         <v>51040.5803</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>307</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3212,11 +3164,17 @@
         <v>51040.5803</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>307</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3245,11 +3203,17 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>307</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3281,8 +3245,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>307</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3311,11 +3281,17 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>307</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3344,11 +3320,17 @@
         <v>76586.68862327044</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>307</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3380,8 +3362,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>307</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3413,8 +3401,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>307</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3446,8 +3440,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>307</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3479,8 +3479,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>307</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3512,8 +3518,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>307</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3545,8 +3557,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>307</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3578,8 +3596,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>307</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3611,8 +3635,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>307</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3641,11 +3671,17 @@
         <v>64692.19312327044</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>307</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3674,11 +3710,17 @@
         <v>65022.72602327044</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>307</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3707,11 +3749,17 @@
         <v>62629.80612327043</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>307</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3740,11 +3788,17 @@
         <v>62418.82182327044</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>307</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3773,11 +3827,17 @@
         <v>62418.82182327044</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>307</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3806,11 +3866,17 @@
         <v>62289.35862327044</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>307</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3839,11 +3905,17 @@
         <v>59448.26222327044</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>307</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3872,11 +3944,17 @@
         <v>59448.26222327044</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>307</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3905,11 +3983,17 @@
         <v>60088.30972327044</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>307</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3938,11 +4022,17 @@
         <v>55265.55702327044</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>307</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3971,11 +4061,17 @@
         <v>58230.55702327044</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>307</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4004,11 +4100,17 @@
         <v>58227.97162327044</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>307</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4037,11 +4139,17 @@
         <v>58237.49872327044</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>307</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4070,11 +4178,17 @@
         <v>54346.45022327044</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>307</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4103,11 +4217,17 @@
         <v>54346.45022327044</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>307</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4136,11 +4256,17 @@
         <v>54445.65532327044</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>307</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +4295,17 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>307</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4202,11 +4334,17 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>307</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4235,11 +4373,17 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>307</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4268,11 +4412,17 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>307</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4301,11 +4451,17 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>307</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4334,11 +4490,17 @@
         <v>53653.93062327044</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>307</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4370,8 +4532,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>307</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4403,8 +4571,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>307</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4436,8 +4610,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>307</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4469,8 +4649,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>307</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4502,8 +4688,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>307</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +4727,20 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>307</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-21 BackTest ZRX.xlsx
@@ -451,7 +451,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>22302.9645</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>306</v>
+      </c>
+      <c r="J3" t="n">
+        <v>306</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>22302.9645</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>306</v>
+      </c>
+      <c r="J4" t="n">
+        <v>306</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>22302.9645</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>306</v>
+      </c>
+      <c r="J5" t="n">
+        <v>306</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>22302.9645</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>306</v>
+      </c>
+      <c r="J6" t="n">
+        <v>306</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>24646.8125</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>306</v>
+      </c>
+      <c r="J7" t="n">
+        <v>306</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -652,8 +684,14 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>306</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,14 +720,10 @@
         <v>24636.8075</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>307</v>
-      </c>
-      <c r="J9" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -722,14 +756,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>307</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -758,17 +786,11 @@
         <v>27943.1965</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>307</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -797,14 +819,10 @@
         <v>27952.1065</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>305</v>
-      </c>
-      <c r="J12" t="n">
-        <v>305</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -834,17 +852,11 @@
         <v>27952.1065</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>305</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -873,19 +885,11 @@
         <v>27952.1065</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>306</v>
-      </c>
-      <c r="J14" t="n">
-        <v>305</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -914,14 +918,10 @@
         <v>27952.1065</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>306</v>
-      </c>
-      <c r="J15" t="n">
-        <v>306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
@@ -951,19 +951,11 @@
         <v>27952.1065</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>306</v>
-      </c>
-      <c r="J16" t="n">
-        <v>306</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -992,19 +984,11 @@
         <v>27952.1065</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>306</v>
-      </c>
-      <c r="J17" t="n">
-        <v>306</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1033,14 +1017,10 @@
         <v>27952.1065</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>306</v>
-      </c>
-      <c r="J18" t="n">
-        <v>306</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1078,11 +1058,7 @@
       <c r="J19" t="n">
         <v>306</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1111,9 +1087,11 @@
         <v>27962.1065</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>306</v>
+      </c>
       <c r="J20" t="n">
         <v>306</v>
       </c>
@@ -1150,11 +1128,19 @@
         <v>27962.1065</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>307</v>
+      </c>
+      <c r="J21" t="n">
+        <v>306</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1183,10 +1169,14 @@
         <v>27962.1065</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>307</v>
+      </c>
+      <c r="J22" t="n">
+        <v>307</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
@@ -1216,11 +1206,19 @@
         <v>27962.1065</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>307</v>
+      </c>
+      <c r="J23" t="n">
+        <v>307</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1249,15 +1247,17 @@
         <v>28513.3163</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>307</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>307</v>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1286,19 +1286,11 @@
         <v>28513.3163</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>308</v>
-      </c>
-      <c r="J25" t="n">
-        <v>307</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1327,19 +1319,11 @@
         <v>30027.0014</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>308</v>
-      </c>
-      <c r="J26" t="n">
-        <v>307</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1368,19 +1352,11 @@
         <v>30558.4214</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>309</v>
-      </c>
-      <c r="J27" t="n">
-        <v>307</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1412,14 +1388,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>307</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1451,14 +1421,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>307</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1490,14 +1454,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>307</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1529,14 +1487,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>307</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1568,14 +1520,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>307</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1607,14 +1553,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>307</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1646,14 +1586,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>307</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1685,14 +1619,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>307</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1724,14 +1652,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>307</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1763,14 +1685,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>307</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1802,14 +1718,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>307</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1841,14 +1751,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>307</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1880,14 +1784,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>307</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1919,14 +1817,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>307</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1958,14 +1850,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>307</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1997,14 +1883,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>307</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2036,14 +1916,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>307</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2075,14 +1949,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>307</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2114,14 +1982,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>307</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2153,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>307</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2192,14 +2048,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>307</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2231,14 +2081,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>307</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2267,17 +2111,11 @@
         <v>58205.8327</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>307</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2306,17 +2144,11 @@
         <v>58205.8327</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>307</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2345,17 +2177,11 @@
         <v>58802.7969</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>307</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2384,17 +2210,11 @@
         <v>55412.3197</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>307</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2423,17 +2243,11 @@
         <v>51766.7595</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>307</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2462,17 +2276,11 @@
         <v>51704.0892</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>307</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2504,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>307</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2543,14 +2345,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>307</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2582,14 +2378,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>307</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2621,14 +2411,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>307</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2660,14 +2444,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>307</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2699,14 +2477,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>307</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2738,14 +2510,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>307</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2774,17 +2540,11 @@
         <v>55387.8105</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>307</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2813,17 +2573,11 @@
         <v>55387.8105</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>307</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2852,17 +2606,11 @@
         <v>55387.8105</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>307</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2891,17 +2639,11 @@
         <v>55387.8105</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>307</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2930,17 +2672,11 @@
         <v>55387.8105</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>307</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2969,17 +2705,11 @@
         <v>55387.8105</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>307</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3008,17 +2738,11 @@
         <v>54545.1405</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>307</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3047,17 +2771,11 @@
         <v>54545.1405</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>307</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3086,17 +2804,11 @@
         <v>54545.1405</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>307</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3125,17 +2837,11 @@
         <v>51040.5803</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>307</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3164,17 +2870,11 @@
         <v>51040.5803</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>307</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3203,17 +2903,11 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>307</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3242,17 +2936,11 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>307</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3281,17 +2969,11 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>307</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3320,17 +3002,11 @@
         <v>76586.68862327044</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>307</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3359,17 +3035,11 @@
         <v>76559.39082327044</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>307</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3398,17 +3068,11 @@
         <v>78393.73192327045</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>307</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3437,17 +3101,11 @@
         <v>78398.96282327044</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>307</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3476,17 +3134,11 @@
         <v>78398.96282327044</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>307</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3515,17 +3167,11 @@
         <v>77392.20752327044</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>307</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3554,17 +3200,11 @@
         <v>77059.75112327044</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>307</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3593,17 +3233,11 @@
         <v>76777.58992327044</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>307</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3635,14 +3269,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>307</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3671,17 +3299,11 @@
         <v>64692.19312327044</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>307</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3713,14 +3335,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>307</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3752,14 +3368,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>307</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3791,14 +3401,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>307</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3830,14 +3434,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>307</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3869,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>307</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3908,14 +3500,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>307</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3947,14 +3533,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>307</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3986,14 +3566,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>307</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4025,14 +3599,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>307</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4064,14 +3632,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>307</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4103,14 +3665,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>307</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4142,14 +3698,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>307</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4181,14 +3731,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>307</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4220,14 +3764,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>307</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4259,14 +3797,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>307</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4298,14 +3830,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>307</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4337,14 +3863,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>307</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4376,14 +3896,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>307</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4415,14 +3929,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>307</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4454,14 +3962,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>307</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4493,14 +3995,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>307</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4532,14 +4028,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>307</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4571,14 +4061,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>307</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4610,14 +4094,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>307</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4649,14 +4127,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>307</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4688,14 +4160,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>307</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4727,14 +4193,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>307</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-11-21 BackTest ZRX.xlsx
+++ b/BackTest/2019-11-21 BackTest ZRX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>133</v>
       </c>
       <c r="G2" t="n">
-        <v>22302.9645</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>2608.056</v>
       </c>
       <c r="G3" t="n">
-        <v>22302.9645</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="I3" t="n">
         <v>306</v>
       </c>
-      <c r="J3" t="n">
-        <v>306</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>127.9881</v>
       </c>
       <c r="G4" t="n">
-        <v>22302.9645</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="I4" t="n">
         <v>306</v>
       </c>
-      <c r="J4" t="n">
-        <v>306</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>1547.5062</v>
       </c>
       <c r="G5" t="n">
-        <v>22302.9645</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="I5" t="n">
         <v>306</v>
       </c>
-      <c r="J5" t="n">
-        <v>306</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +583,15 @@
         <v>242.8181</v>
       </c>
       <c r="G6" t="n">
-        <v>22302.9645</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>306</v>
-      </c>
-      <c r="J6" t="n">
-        <v>306</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +613,15 @@
         <v>2343.848</v>
       </c>
       <c r="G7" t="n">
-        <v>24646.8125</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>306</v>
-      </c>
-      <c r="J7" t="n">
-        <v>306</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,24 +643,15 @@
         <v>137.508</v>
       </c>
       <c r="G8" t="n">
-        <v>24646.8125</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>306</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -717,18 +673,15 @@
         <v>10.005</v>
       </c>
       <c r="G9" t="n">
-        <v>24636.8075</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -750,18 +703,15 @@
         <v>3806.389</v>
       </c>
       <c r="G10" t="n">
-        <v>28443.1965</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,18 +733,19 @@
         <v>500</v>
       </c>
       <c r="G11" t="n">
-        <v>27943.1965</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="I11" t="n">
+        <v>306</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +767,23 @@
         <v>8.91</v>
       </c>
       <c r="G12" t="n">
-        <v>27952.1065</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>305</v>
+      </c>
+      <c r="I12" t="n">
+        <v>306</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -849,18 +805,23 @@
         <v>462</v>
       </c>
       <c r="G13" t="n">
-        <v>27952.1065</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="I13" t="n">
+        <v>306</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,18 +843,15 @@
         <v>9.609999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>27952.1065</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -915,18 +873,15 @@
         <v>9.369999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>27952.1065</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -948,18 +903,15 @@
         <v>3220.5773</v>
       </c>
       <c r="G16" t="n">
-        <v>27952.1065</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -981,18 +933,19 @@
         <v>4193.875</v>
       </c>
       <c r="G17" t="n">
-        <v>27952.1065</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="I17" t="n">
+        <v>306</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1014,18 +967,23 @@
         <v>2420.0966</v>
       </c>
       <c r="G18" t="n">
-        <v>27952.1065</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="I18" t="n">
+        <v>306</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1047,22 +1005,23 @@
         <v>8042.947</v>
       </c>
       <c r="G19" t="n">
-        <v>27952.1065</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="I19" t="n">
         <v>306</v>
       </c>
-      <c r="J19" t="n">
-        <v>306</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1084,26 +1043,19 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>27962.1065</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>306</v>
       </c>
       <c r="I20" t="n">
         <v>306</v>
       </c>
-      <c r="J20" t="n">
-        <v>306</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1125,26 +1077,23 @@
         <v>104.4124</v>
       </c>
       <c r="G21" t="n">
-        <v>27962.1065</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="I21" t="n">
-        <v>307</v>
-      </c>
-      <c r="J21" t="n">
-        <v>306</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>306</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1166,22 +1115,23 @@
         <v>4921.7482</v>
       </c>
       <c r="G22" t="n">
-        <v>27962.1065</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="I22" t="n">
-        <v>307</v>
-      </c>
-      <c r="J22" t="n">
-        <v>307</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1203,26 +1153,19 @@
         <v>412.6133</v>
       </c>
       <c r="G23" t="n">
-        <v>27962.1065</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="I23" t="n">
         <v>307</v>
       </c>
-      <c r="J23" t="n">
-        <v>307</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1244,24 +1187,23 @@
         <v>551.2098</v>
       </c>
       <c r="G24" t="n">
-        <v>28513.3163</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>307</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>307</v>
+      </c>
+      <c r="I24" t="n">
+        <v>307</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,18 +1225,23 @@
         <v>2727.9908</v>
       </c>
       <c r="G25" t="n">
-        <v>28513.3163</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>308</v>
+      </c>
+      <c r="I25" t="n">
+        <v>307</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1316,18 +1263,23 @@
         <v>1513.6851</v>
       </c>
       <c r="G26" t="n">
-        <v>30027.0014</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>308</v>
+      </c>
+      <c r="I26" t="n">
+        <v>307</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1349,18 +1301,23 @@
         <v>531.42</v>
       </c>
       <c r="G27" t="n">
-        <v>30558.4214</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>309</v>
+      </c>
+      <c r="I27" t="n">
+        <v>307</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1382,18 +1339,23 @@
         <v>30</v>
       </c>
       <c r="G28" t="n">
-        <v>30588.4214</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>310</v>
+      </c>
+      <c r="I28" t="n">
+        <v>307</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1415,18 +1377,23 @@
         <v>301.1377</v>
       </c>
       <c r="G29" t="n">
-        <v>30889.55909999999</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="I29" t="n">
+        <v>307</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1448,18 +1415,21 @@
         <v>2147.9827</v>
       </c>
       <c r="G30" t="n">
-        <v>30889.55909999999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>307</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1481,18 +1451,21 @@
         <v>266.8406</v>
       </c>
       <c r="G31" t="n">
-        <v>30889.55909999999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>307</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1514,18 +1487,21 @@
         <v>12116.8482</v>
       </c>
       <c r="G32" t="n">
-        <v>30889.55909999999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>307</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,18 +1523,21 @@
         <v>7306.9889</v>
       </c>
       <c r="G33" t="n">
-        <v>38196.548</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>307</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1580,18 +1559,21 @@
         <v>4286.817</v>
       </c>
       <c r="G34" t="n">
-        <v>38196.548</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>307</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1613,18 +1595,21 @@
         <v>161.3874</v>
       </c>
       <c r="G35" t="n">
-        <v>38035.1606</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>307</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1646,18 +1631,21 @@
         <v>1703.0788</v>
       </c>
       <c r="G36" t="n">
-        <v>39738.2394</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>307</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1679,18 +1667,21 @@
         <v>11.3044</v>
       </c>
       <c r="G37" t="n">
-        <v>39726.935</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>307</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1712,18 +1703,21 @@
         <v>46.1475</v>
       </c>
       <c r="G38" t="n">
-        <v>39680.7875</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>307</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1745,18 +1739,21 @@
         <v>1.8525</v>
       </c>
       <c r="G39" t="n">
-        <v>39680.7875</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>307</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,18 +1775,21 @@
         <v>7.0475</v>
       </c>
       <c r="G40" t="n">
-        <v>39673.74</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>307</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1811,18 +1811,23 @@
         <v>900</v>
       </c>
       <c r="G41" t="n">
-        <v>40573.74</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>306</v>
+      </c>
+      <c r="I41" t="n">
+        <v>307</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1844,18 +1849,21 @@
         <v>1000</v>
       </c>
       <c r="G42" t="n">
-        <v>40573.74</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>307</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1877,18 +1885,21 @@
         <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>41573.74</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>307</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1910,18 +1921,21 @@
         <v>48</v>
       </c>
       <c r="G44" t="n">
-        <v>41621.74</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>307</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1943,18 +1957,21 @@
         <v>3288.4216</v>
       </c>
       <c r="G45" t="n">
-        <v>44910.1616</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>307</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1976,18 +1993,21 @@
         <v>9789.766</v>
       </c>
       <c r="G46" t="n">
-        <v>44910.1616</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>307</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2009,18 +2029,21 @@
         <v>66.3351</v>
       </c>
       <c r="G47" t="n">
-        <v>44976.4967</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>307</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2042,18 +2065,21 @@
         <v>280.4305</v>
       </c>
       <c r="G48" t="n">
-        <v>44976.4967</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>307</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2075,18 +2101,21 @@
         <v>13229.336</v>
       </c>
       <c r="G49" t="n">
-        <v>58205.8327</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>307</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2108,18 +2137,21 @@
         <v>28.8595</v>
       </c>
       <c r="G50" t="n">
-        <v>58205.8327</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>307</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2141,18 +2173,21 @@
         <v>189.5233</v>
       </c>
       <c r="G51" t="n">
-        <v>58205.8327</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>307</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2174,18 +2209,21 @@
         <v>596.9642</v>
       </c>
       <c r="G52" t="n">
-        <v>58802.7969</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>307</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2207,18 +2245,21 @@
         <v>3390.4772</v>
       </c>
       <c r="G53" t="n">
-        <v>55412.3197</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>307</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1.024315960912052</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2240,18 +2281,15 @@
         <v>3645.5602</v>
       </c>
       <c r="G54" t="n">
-        <v>51766.7595</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2273,18 +2311,15 @@
         <v>62.6703</v>
       </c>
       <c r="G55" t="n">
-        <v>51704.0892</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2306,18 +2341,15 @@
         <v>416.3252</v>
       </c>
       <c r="G56" t="n">
-        <v>51287.764</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2339,18 +2371,15 @@
         <v>2000</v>
       </c>
       <c r="G57" t="n">
-        <v>51287.764</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2372,18 +2401,15 @@
         <v>1000</v>
       </c>
       <c r="G58" t="n">
-        <v>52287.764</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2405,18 +2431,15 @@
         <v>11630.0507</v>
       </c>
       <c r="G59" t="n">
-        <v>52287.764</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2438,18 +2461,15 @@
         <v>3056.6158</v>
       </c>
       <c r="G60" t="n">
-        <v>49231.1482</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2471,18 +2491,15 @@
         <v>3998.9264</v>
       </c>
       <c r="G61" t="n">
-        <v>53230.0746</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2504,18 +2521,15 @@
         <v>2157.7359</v>
       </c>
       <c r="G62" t="n">
-        <v>55387.8105</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2537,18 +2551,15 @@
         <v>1050.34</v>
       </c>
       <c r="G63" t="n">
-        <v>55387.8105</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2570,18 +2581,15 @@
         <v>75.65779999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>55387.8105</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2603,18 +2611,15 @@
         <v>27.2978</v>
       </c>
       <c r="G65" t="n">
-        <v>55387.8105</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2636,18 +2641,15 @@
         <v>373.2164</v>
       </c>
       <c r="G66" t="n">
-        <v>55387.8105</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2669,18 +2671,15 @@
         <v>4297.5824</v>
       </c>
       <c r="G67" t="n">
-        <v>55387.8105</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2702,18 +2701,15 @@
         <v>5.8199</v>
       </c>
       <c r="G68" t="n">
-        <v>55387.8105</v>
-      </c>
-      <c r="H68" t="n">
         <v>2</v>
       </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2735,18 +2731,15 @@
         <v>842.67</v>
       </c>
       <c r="G69" t="n">
-        <v>54545.1405</v>
-      </c>
-      <c r="H69" t="n">
         <v>2</v>
       </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2768,18 +2761,15 @@
         <v>210.9842767295598</v>
       </c>
       <c r="G70" t="n">
-        <v>54545.1405</v>
-      </c>
-      <c r="H70" t="n">
         <v>2</v>
       </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2801,18 +2791,15 @@
         <v>3341.5</v>
       </c>
       <c r="G71" t="n">
-        <v>54545.1405</v>
-      </c>
-      <c r="H71" t="n">
         <v>2</v>
       </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2834,18 +2821,15 @@
         <v>3504.5602</v>
       </c>
       <c r="G72" t="n">
-        <v>51040.5803</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2867,18 +2851,15 @@
         <v>1373.5681</v>
       </c>
       <c r="G73" t="n">
-        <v>51040.5803</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2900,18 +2881,15 @@
         <v>26043.57982327044</v>
       </c>
       <c r="G74" t="n">
-        <v>77084.16012327044</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2933,18 +2911,15 @@
         <v>294.4394</v>
       </c>
       <c r="G75" t="n">
-        <v>77084.16012327044</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2966,18 +2941,15 @@
         <v>940.9879767295597</v>
       </c>
       <c r="G76" t="n">
-        <v>77084.16012327044</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2999,18 +2971,15 @@
         <v>497.4715</v>
       </c>
       <c r="G77" t="n">
-        <v>76586.68862327044</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3032,18 +3001,15 @@
         <v>27.2978</v>
       </c>
       <c r="G78" t="n">
-        <v>76559.39082327044</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3065,18 +3031,15 @@
         <v>1834.3411</v>
       </c>
       <c r="G79" t="n">
-        <v>78393.73192327045</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3098,18 +3061,15 @@
         <v>5.2309</v>
       </c>
       <c r="G80" t="n">
-        <v>78398.96282327044</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3131,18 +3091,15 @@
         <v>7.12</v>
       </c>
       <c r="G81" t="n">
-        <v>78398.96282327044</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3164,18 +3121,15 @@
         <v>1006.7553</v>
       </c>
       <c r="G82" t="n">
-        <v>77392.20752327044</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3197,18 +3151,15 @@
         <v>332.4564</v>
       </c>
       <c r="G83" t="n">
-        <v>77059.75112327044</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3230,18 +3181,15 @@
         <v>282.1612</v>
       </c>
       <c r="G84" t="n">
-        <v>76777.58992327044</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3263,18 +3211,15 @@
         <v>12085.3968</v>
       </c>
       <c r="G85" t="n">
-        <v>64692.19312327044</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3296,18 +3241,15 @@
         <v>1489.3355</v>
       </c>
       <c r="G86" t="n">
-        <v>64692.19312327044</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3329,18 +3271,15 @@
         <v>330.5329</v>
       </c>
       <c r="G87" t="n">
-        <v>65022.72602327044</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3362,18 +3301,15 @@
         <v>2392.9199</v>
       </c>
       <c r="G88" t="n">
-        <v>62629.80612327043</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3395,18 +3331,15 @@
         <v>210.9843</v>
       </c>
       <c r="G89" t="n">
-        <v>62418.82182327044</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3428,18 +3361,15 @@
         <v>93.0628</v>
       </c>
       <c r="G90" t="n">
-        <v>62418.82182327044</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3461,18 +3391,15 @@
         <v>129.4632</v>
       </c>
       <c r="G91" t="n">
-        <v>62289.35862327044</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3494,18 +3421,15 @@
         <v>2841.0964</v>
       </c>
       <c r="G92" t="n">
-        <v>59448.26222327044</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3527,18 +3451,15 @@
         <v>6624.827</v>
       </c>
       <c r="G93" t="n">
-        <v>59448.26222327044</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3560,18 +3481,15 @@
         <v>640.0475</v>
       </c>
       <c r="G94" t="n">
-        <v>60088.30972327044</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3593,18 +3511,15 @@
         <v>4822.7527</v>
       </c>
       <c r="G95" t="n">
-        <v>55265.55702327044</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3626,18 +3541,15 @@
         <v>2965</v>
       </c>
       <c r="G96" t="n">
-        <v>58230.55702327044</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3659,18 +3571,15 @@
         <v>2.5854</v>
       </c>
       <c r="G97" t="n">
-        <v>58227.97162327044</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3692,18 +3601,15 @@
         <v>9.527100000000001</v>
       </c>
       <c r="G98" t="n">
-        <v>58237.49872327044</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3725,18 +3631,15 @@
         <v>3891.0485</v>
       </c>
       <c r="G99" t="n">
-        <v>54346.45022327044</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3758,18 +3661,15 @@
         <v>1609.6956</v>
       </c>
       <c r="G100" t="n">
-        <v>54346.45022327044</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3791,18 +3691,15 @@
         <v>99.2051</v>
       </c>
       <c r="G101" t="n">
-        <v>54445.65532327044</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3824,18 +3721,15 @@
         <v>791.7247</v>
       </c>
       <c r="G102" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3857,18 +3751,15 @@
         <v>138.5257</v>
       </c>
       <c r="G103" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3890,18 +3781,15 @@
         <v>164.5074</v>
       </c>
       <c r="G104" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3923,18 +3811,15 @@
         <v>24.538</v>
       </c>
       <c r="G105" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3956,18 +3841,15 @@
         <v>3.7933</v>
       </c>
       <c r="G106" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3989,18 +3871,15 @@
         <v>0.7587</v>
       </c>
       <c r="G107" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4022,18 +3901,15 @@
         <v>3.2052</v>
       </c>
       <c r="G108" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4055,18 +3931,15 @@
         <v>74.67149999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4088,18 +3961,15 @@
         <v>4825.0764</v>
       </c>
       <c r="G110" t="n">
-        <v>53653.93062327044</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4121,18 +3991,15 @@
         <v>995</v>
       </c>
       <c r="G111" t="n">
-        <v>54648.93062327044</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4154,18 +4021,15 @@
         <v>565.8653</v>
       </c>
       <c r="G112" t="n">
-        <v>54648.93062327044</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4187,18 +4051,15 @@
         <v>59.4547</v>
       </c>
       <c r="G113" t="n">
-        <v>54648.93062327044</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
